--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N2">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O2">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P2">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q2">
-        <v>0.396226397203</v>
+        <v>1.094556940104</v>
       </c>
       <c r="R2">
-        <v>2.377358383218</v>
+        <v>6.567341640624</v>
       </c>
       <c r="S2">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="T2">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>9.20485</v>
       </c>
       <c r="O3">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P3">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q3">
         <v>1.762845369766667</v>
@@ -641,10 +641,10 @@
         <v>15.8656083279</v>
       </c>
       <c r="S3">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="T3">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N4">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O4">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P4">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q4">
-        <v>3.047425774041333</v>
+        <v>2.140702159252</v>
       </c>
       <c r="R4">
-        <v>27.426831966372</v>
+        <v>19.266319433268</v>
       </c>
       <c r="S4">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="T4">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N5">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O5">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P5">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q5">
-        <v>3.50830713478</v>
+        <v>3.921702163768</v>
       </c>
       <c r="R5">
-        <v>21.04984280868</v>
+        <v>23.530212982608</v>
       </c>
       <c r="S5">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="T5">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N6">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O6">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P6">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q6">
-        <v>0.5417228791046667</v>
+        <v>2.440422929813333</v>
       </c>
       <c r="R6">
-        <v>4.875505911942</v>
+        <v>21.96380636832</v>
       </c>
       <c r="S6">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="T6">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N7">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O7">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P7">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q7">
-        <v>3.154785859848</v>
+        <v>3.078909498878001</v>
       </c>
       <c r="R7">
-        <v>28.393072738632</v>
+        <v>27.710185489902</v>
       </c>
       <c r="S7">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="T7">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
     </row>
   </sheetData>
